--- a/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\src\Tests\bin\Debug\net6.0\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <x:si>
     <x:t>Наименование</x:t>
   </x:si>
@@ -165,12 +165,6 @@
     <x:t>Регион</x:t>
   </x:si>
   <x:si>
-    <x:t>БАНК_Кельн</x:t>
-  </x:si>
-  <x:si>
-    <x:t>БАНКИжевск</x:t>
-  </x:si>
-  <x:si>
     <x:t>Итог</x:t>
   </x:si>
   <x:si>
@@ -189,54 +183,31 @@
     <x:t>г. Москва</x:t>
   </x:si>
   <x:si>
-    <x:t>г. Кельн</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Загружен частично</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08.02.2023</x:t>
-  </x:si>
-  <x:si>
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>Не найден Банк "БАНКИжевск". Наименование организации: "Ярко ООО".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Населенный пункт "г. Кельн". Наименование организации: "Digital River GmbH". 
-Не найден Банк "БАНК_Кельн". Наименование организации: "Digital River GmbH".</x:t>
-  </x:si>
-  <x:si>
     <x:t>11.05.2023</x:t>
   </x:si>
   <x:si>
-    <x:t>Не найден Банк "БАНКИжевск". Наименование организации: "Ярко ООО". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Населенный пункт "г. Кельн". Наименование организации: "Digital River GmbH". 
-Не найден Банк "БАНК_Кельн". Наименование организации: "Digital River GmbH". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Населенный пункт "г. Кельн". Наименование организации: "Digital River GmbH". 
-Не найден Банк "БАНК_Кельн". Наименование организации: "Digital River GmbH". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Населенный пункт "г. Кельн". Наименование организации: "Digital River GmbH". 
-Не найден Банк "БАНК_Кельн". Наименование организации: "Digital River GmbH". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Населенный пункт "г. Кельн". Наименование организации: "Digital River GmbH". 
-Не найден Банк "БАНК_Кельн". Наименование организации: "Digital River GmbH". </x:t>
+    <x:t>г. Санкт-Петербург</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не заполнено поле "Фамилия".; Не заполнено поле "Фамилия".</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -654,8 +625,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:W7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="S22" sqref="S22"/>
+    <x:sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <x:selection activeCell="S6" sqref="S6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,16 +714,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="T1" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="U1" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="V1" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="W1" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -772,7 +743,7 @@
       <x:c r="H2" s="6"/>
       <x:c r="I2" s="5"/>
       <x:c r="J2" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K2" s="5"/>
       <x:c r="L2" s="5" t="s">
@@ -791,15 +762,17 @@
       <x:c r="Q2" s="5"/>
       <x:c r="R2" s="5"/>
       <x:c r="S2" s="5"/>
-      <x:c r="T2" s="11"/>
+      <x:c r="T2" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="U2" s="8" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="V2" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="W2" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -819,7 +792,7 @@
       <x:c r="H3" s="6"/>
       <x:c r="I3" s="5"/>
       <x:c r="J3" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K3" s="5"/>
       <x:c r="L3" s="5" t="s">
@@ -836,15 +809,17 @@
       <x:c r="Q3" s="5"/>
       <x:c r="R3" s="5"/>
       <x:c r="S3" s="5"/>
-      <x:c r="T3" s="11"/>
+      <x:c r="T3" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="U3" s="8" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="V3" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="W3" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -864,7 +839,7 @@
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="5"/>
       <x:c r="J4" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="K4" s="5"/>
       <x:c r="L4" s="5" t="s">
@@ -879,15 +854,17 @@
       <x:c r="Q4" s="5"/>
       <x:c r="R4" s="5"/>
       <x:c r="S4" s="5"/>
-      <x:c r="T4" s="11"/>
+      <x:c r="T4" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="U4" s="8" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -907,7 +884,7 @@
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="5"/>
       <x:c r="J5" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="K5" s="5"/>
       <x:c r="L5" s="5" t="s">
@@ -928,15 +905,17 @@
       <x:c r="Q5" s="5"/>
       <x:c r="R5" s="5"/>
       <x:c r="S5" s="5"/>
-      <x:c r="T5" s="11"/>
+      <x:c r="T5" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="U5" s="8" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -956,7 +935,7 @@
       <x:c r="H6" s="6"/>
       <x:c r="I6" s="5"/>
       <x:c r="J6" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K6" s="5"/>
       <x:c r="L6" s="5" t="s">
@@ -970,18 +949,18 @@
       <x:c r="P6" s="5"/>
       <x:c r="Q6" s="5"/>
       <x:c r="R6" s="5"/>
-      <x:c r="S6" s="5" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="T6" s="11"/>
+      <x:c r="S6" s="5"/>
+      <x:c r="T6" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="U6" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="V6" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="W6" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -1001,7 +980,7 @@
       <x:c r="H7" s="6"/>
       <x:c r="I7" s="5"/>
       <x:c r="J7" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="K7" s="5"/>
       <x:c r="L7" s="5" t="s">
@@ -1015,18 +994,18 @@
       <x:c r="P7" s="5"/>
       <x:c r="Q7" s="5"/>
       <x:c r="R7" s="5"/>
-      <x:c r="S7" s="5" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="T7" s="11"/>
+      <x:c r="S7" s="5"/>
+      <x:c r="T7" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="U7" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="V7" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="W7" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <x:si>
     <x:t>Наименование</x:t>
   </x:si>
@@ -183,25 +183,31 @@
     <x:t>г. Москва</x:t>
   </x:si>
   <x:si>
+    <x:t>Загружен частично</x:t>
+  </x:si>
+  <x:si>
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>11.05.2023</x:t>
+    <x:t>14.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"БАНК ЗАРЕЧЬЕ" (АО)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Русьуниверсалбанк" (ООО)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "г. Кельн". Наименование организации: "Digital River GmbH".</x:t>
   </x:si>
   <x:si>
     <x:t>г. Санкт-Петербург</x:t>
   </x:si>
   <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.05.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не заполнено поле "Фамилия".; Не заполнено поле "Фамилия".</x:t>
+    <x:t>15.05.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -625,8 +631,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:W7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <x:selection activeCell="S6" sqref="S6"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E9" sqref="E9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,13 +720,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="T1" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="U1" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="U1" s="7" t="s">
+      <x:c r="V1" s="2" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="V1" s="2" t="s">
-        <x:v>48</x:v>
       </x:c>
       <x:c r="W1" s="2" t="s">
         <x:v>48</x:v>
@@ -762,17 +768,15 @@
       <x:c r="Q2" s="5"/>
       <x:c r="R2" s="5"/>
       <x:c r="S2" s="5"/>
-      <x:c r="T2" s="11" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="T2" s="11"/>
       <x:c r="U2" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="V2" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="W2" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -809,17 +813,15 @@
       <x:c r="Q3" s="5"/>
       <x:c r="R3" s="5"/>
       <x:c r="S3" s="5"/>
-      <x:c r="T3" s="11" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="T3" s="11"/>
       <x:c r="U3" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="V3" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="W3" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -854,17 +856,15 @@
       <x:c r="Q4" s="5"/>
       <x:c r="R4" s="5"/>
       <x:c r="S4" s="5"/>
-      <x:c r="T4" s="11" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="T4" s="11"/>
       <x:c r="U4" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -905,17 +905,15 @@
       <x:c r="Q5" s="5"/>
       <x:c r="R5" s="5"/>
       <x:c r="S5" s="5"/>
-      <x:c r="T5" s="11" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="T5" s="11"/>
       <x:c r="U5" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -949,18 +947,18 @@
       <x:c r="P6" s="5"/>
       <x:c r="Q6" s="5"/>
       <x:c r="R6" s="5"/>
-      <x:c r="S6" s="5"/>
-      <x:c r="T6" s="11" t="s">
+      <x:c r="S6" s="5" t="s">
         <x:v>57</x:v>
       </x:c>
+      <x:c r="T6" s="11"/>
       <x:c r="U6" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="V6" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="W6" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -980,7 +978,7 @@
       <x:c r="H7" s="6"/>
       <x:c r="I7" s="5"/>
       <x:c r="J7" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K7" s="5"/>
       <x:c r="L7" s="5" t="s">
@@ -994,18 +992,18 @@
       <x:c r="P7" s="5"/>
       <x:c r="Q7" s="5"/>
       <x:c r="R7" s="5"/>
-      <x:c r="S7" s="5"/>
-      <x:c r="T7" s="11" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="S7" s="5" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="T7" s="11"/>
       <x:c r="U7" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="V7" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="W7" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
@@ -208,6 +208,29 @@
   </x:si>
   <x:si>
     <x:t>15.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "г. Химки". Наименование организации: "Авалон ООО". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "г. Ижевск". Наименование организации: "Политекс ООО". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "г. Москва". Наименование организации: "Точка Росы ООО". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "г. Москва". Наименование организации: "ТРАНСФИНГРУП, УК". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "г. Ижевск". Наименование организации: "Ярко ООО". 
+Не найден Банк ""БАНК ЗАРЕЧЬЕ" (АО)". Наименование организации: "Ярко ООО". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "г. Санкт-Петербург". Наименование организации: "Digital River GmbH". 
+Не найден Банк ""Русьуниверсалбанк" (ООО)". Наименование организации: "Digital River GmbH". </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -773,7 +796,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V2" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="W2" s="2" t="s">
         <x:v>55</x:v>
@@ -818,7 +841,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V3" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="W3" s="2" t="s">
         <x:v>55</x:v>
@@ -861,7 +884,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
         <x:v>55</x:v>
@@ -910,7 +933,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
         <x:v>55</x:v>
@@ -955,7 +978,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V6" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="W6" s="2" t="s">
         <x:v>55</x:v>
@@ -1000,7 +1023,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V7" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="W7" s="3" t="s">
         <x:v>55</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
@@ -231,6 +231,9 @@
   <x:si>
     <x:t>Не найден Населенный пункт "г. Санкт-Петербург". Наименование организации: "Digital River GmbH". 
 Не найден Банк ""Русьуниверсалбанк" (ООО)". Наименование организации: "Digital River GmbH". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.05.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -796,7 +799,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V2" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W2" s="2" t="s">
         <x:v>55</x:v>
@@ -841,7 +844,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V3" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W3" s="2" t="s">
         <x:v>55</x:v>
@@ -884,7 +887,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
         <x:v>55</x:v>
@@ -933,7 +936,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
         <x:v>55</x:v>
@@ -978,7 +981,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V6" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W6" s="2" t="s">
         <x:v>55</x:v>
@@ -1023,7 +1026,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V7" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W7" s="3" t="s">
         <x:v>55</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
@@ -234,6 +234,9 @@
   </x:si>
   <x:si>
     <x:t>17.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -799,7 +802,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V2" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W2" s="2" t="s">
         <x:v>55</x:v>
@@ -844,7 +847,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V3" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W3" s="2" t="s">
         <x:v>55</x:v>
@@ -887,7 +890,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
         <x:v>55</x:v>
@@ -936,7 +939,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
         <x:v>55</x:v>
@@ -981,7 +984,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V6" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W6" s="2" t="s">
         <x:v>55</x:v>
@@ -1026,7 +1029,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V7" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W7" s="3" t="s">
         <x:v>55</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Companies.xlsx
@@ -234,9 +234,6 @@
   </x:si>
   <x:si>
     <x:t>17.05.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -802,7 +799,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V2" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W2" s="2" t="s">
         <x:v>55</x:v>
@@ -847,7 +844,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V3" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W3" s="2" t="s">
         <x:v>55</x:v>
@@ -890,7 +887,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
         <x:v>55</x:v>
@@ -939,7 +936,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
         <x:v>55</x:v>
@@ -984,7 +981,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V6" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W6" s="2" t="s">
         <x:v>55</x:v>
@@ -1029,7 +1026,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V7" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="W7" s="3" t="s">
         <x:v>55</x:v>
